--- a/medicine/Enfance/Kat_Falls/Kat_Falls.xlsx
+++ b/medicine/Enfance/Kat_Falls/Kat_Falls.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kat Falls, née en 1964 à Silver Spring dans le Maryland, est une romancière américaine, principalement de science-fiction. Parmi ses œuvres, on compte Le Spectre des abysses[1] et sa suite Prisonnier des abysses[2], ainsi que la duologie Inhuman et Undaunted.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kat Falls, née en 1964 à Silver Spring dans le Maryland, est une romancière américaine, principalement de science-fiction. Parmi ses œuvres, on compte Le Spectre des abysses et sa suite Prisonnier des abysses, ainsi que la duologie Inhuman et Undaunted.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Jeunesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kat Falls nait en 1964 à Silver Spring dans le Maryland. Elle est titulaire d'une licence du Rensselaer Polytechnic Institute et d'une maîtrise en scénarisation à l'Université Northwestern [3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kat Falls nait en 1964 à Silver Spring dans le Maryland. Elle est titulaire d'une licence du Rensselaer Polytechnic Institute et d'une maîtrise en scénarisation à l'Université Northwestern .
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son premier roman, Le Spectre des abysses, est publié par la Scholastic Corporation en mai 2010. Il est diffusé à l'international dans dix-huit pays puis nommé pour le prix du livre pour enfants aux États-Unis. Il reçoit également un Juvenile Library Award des Amis des écrivains américains en 2011 [4] La suite, Riptide (prisonniers des Abysses en français) est publiée le 1er août 2011[5].
-Inhuman est le roman suivant de l'autrice. Il est publié aux États-Unis chez Scholastic Press à l'automne 2013. Le livre reçoit une nomination pour le prix Truman Readers 2015-2016 de l'Association des bibliothécaires scolaires du Missouri[6].
-La suite sort le 26 mars 2019 et s'intitule Undaunted[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son premier roman, Le Spectre des abysses, est publié par la Scholastic Corporation en mai 2010. Il est diffusé à l'international dans dix-huit pays puis nommé pour le prix du livre pour enfants aux États-Unis. Il reçoit également un Juvenile Library Award des Amis des écrivains américains en 2011  La suite, Riptide (prisonniers des Abysses en français) est publiée le 1er août 2011.
+Inhuman est le roman suivant de l'autrice. Il est publié aux États-Unis chez Scholastic Press à l'automne 2013. Le livre reçoit une nomination pour le prix Truman Readers 2015-2016 de l'Association des bibliothécaires scolaires du Missouri.
+La suite sort le 26 mars 2019 et s'intitule Undaunted.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Vie personnelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kat Falls vit à Evanston, dans l'Illinois avec Robert Falls, son mari qui est directeur de théâtre et leurs trois enfants. Elle enseigne le scénario à la Northwestern University[8] .
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kat Falls vit à Evanston, dans l'Illinois avec Robert Falls, son mari qui est directeur de théâtre et leurs trois enfants. Elle enseigne le scénario à la Northwestern University .
 </t>
         </is>
       </c>
@@ -608,11 +626,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Série Abysses
-Le Spectre des abysses, Bayard jeunesse, 2012 ((en) Dark Life, 2010), trad. Danièle Laruelle, 336 p.  (ISBN 978-2-7470-3364-0)
-Prisonnier des abysses, Bayard jeunesse, 2013 ((en) Rip Tide, 2011), trad. Danièle Laruelle, 300 p.  (ISBN 978-2-7470-3365-7)
-Série Fetch
-Inhuman, Milan, 2015 ((en) Inhuman, 2013), trad. Christine Bouard-Schwartz, 443 p.  (ISBN 978-2-7459-7247-7)
+          <t>Série Abysses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Spectre des abysses, Bayard jeunesse, 2012 ((en) Dark Life, 2010), trad. Danièle Laruelle, 336 p.  (ISBN 978-2-7470-3364-0)
+Prisonnier des abysses, Bayard jeunesse, 2013 ((en) Rip Tide, 2011), trad. Danièle Laruelle, 300 p.  (ISBN 978-2-7470-3365-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kat_Falls</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kat_Falls</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Fetch</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Inhuman, Milan, 2015 ((en) Inhuman, 2013), trad. Christine Bouard-Schwartz, 443 p.  (ISBN 978-2-7459-7247-7)
 (en) Undaunted, 2019</t>
         </is>
       </c>
